--- a/ApplicationTestData/BkupAppData.xlsx
+++ b/ApplicationTestData/BkupAppData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="3840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="3840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
-  <si>
-    <t>ghoshd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Debasish</t>
   </si>
@@ -33,12 +30,6 @@
     <t>Contact No.</t>
   </si>
   <si>
-    <t>18000005899</t>
-  </si>
-  <si>
-    <t>molit@1234</t>
-  </si>
-  <si>
     <t>Contract Type</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
     <t>Payer</t>
   </si>
   <si>
-    <t>TC1800520</t>
-  </si>
-  <si>
     <t>Booking Doc Entry Office</t>
   </si>
   <si>
@@ -136,6 +124,66 @@
   </si>
   <si>
     <t>Cargo Unit</t>
+  </si>
+  <si>
+    <t>B/L Data</t>
+  </si>
+  <si>
+    <t>Goods Description Text</t>
+  </si>
+  <si>
+    <t>Goods Description for Cargo Details One</t>
+  </si>
+  <si>
+    <t>autotestadm</t>
+  </si>
+  <si>
+    <t>Password@1234</t>
+  </si>
+  <si>
+    <t>Charge Code</t>
+  </si>
+  <si>
+    <t>ADH</t>
+  </si>
+  <si>
+    <t>Per Bill</t>
+  </si>
+  <si>
+    <t>molsin</t>
+  </si>
+  <si>
+    <t>Currenecy</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Invoice Offce</t>
+  </si>
+  <si>
+    <t>Payer Code</t>
+  </si>
+  <si>
+    <t>Transaction log</t>
+  </si>
+  <si>
+    <t>BL saved</t>
+  </si>
+  <si>
+    <t>TC1800579</t>
+  </si>
+  <si>
+    <t>18000009404</t>
+  </si>
+  <si>
+    <t>Contract No for Upload Contarct</t>
+  </si>
+  <si>
+    <t>Upload file path</t>
+  </si>
+  <si>
+    <t>D:\TC1800579_Rev0.xlsx</t>
   </si>
 </sst>
 </file>
@@ -191,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -200,6 +248,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -519,18 +570,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -543,149 +594,164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>5117553</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5">
         <v>43214</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5">
         <v>43579</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="B12">
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>5117553</v>
@@ -699,10 +765,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,57 +776,138 @@
     <col min="1" max="1" width="15.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2">
         <v>18000008178</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>5056735</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>5117553</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
